--- a/KUISIONER/KUISIONER.xlsx
+++ b/KUISIONER/KUISIONER.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\skripsi\KUISIONER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D59E4F1-EA51-47C9-BB8E-52A49BFF81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2522E15-8BFF-40ED-A8E3-60CF2A360589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C0AA9E5D-D077-47F3-8C50-528064D6528A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{C0AA9E5D-D077-47F3-8C50-528064D6528A}"/>
   </bookViews>
   <sheets>
     <sheet name="OBS" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t xml:space="preserve">TABEL WAWAWANCARA </t>
   </si>
@@ -77,13 +78,184 @@
   </si>
   <si>
     <t>Apakah sistem rekam medis elekronik syifa medikana dapat membantu dalam proses pengengelolaan data rekam medis?</t>
+  </si>
+  <si>
+    <t>Apakah Informasi pada sistem informasi rekam medis elektronik Syifa Medikana sesuai dengan input?</t>
+  </si>
+  <si>
+    <t>Apakah biaya yang di bebankan untuk membangun sistem informasi rekam medis elektronik membebani pihak klinik?</t>
+  </si>
+  <si>
+    <t>Apakah sistem informasi rekam medis elektronik membuat proses administrasi rekam medis menjadi efektif dan efisien?</t>
+  </si>
+  <si>
+    <t>Apakah pembuatan laporan pada sistem informasi rekam medis elektronik sudah berjalan dengan baik?</t>
+  </si>
+  <si>
+    <t>Ya sistem sudah berjalan dengan baik dan setiap menu sudah sesuai fungsinya masing masing</t>
+  </si>
+  <si>
+    <t>Ya, Informasi yang di peroleh sistem sudah sesuai inputan petugas dan dokter</t>
+  </si>
+  <si>
+    <t>Sangat tidak terbebani karena menggunakan laptop pemilik klinik dan Handphone masing masing petugas</t>
+  </si>
+  <si>
+    <t>Ya, Sistem mudah untuk di gunakan, petugas dan dokter tidak butuh waktu lama untuk mempelajari pengoperasian sistem</t>
+  </si>
+  <si>
+    <t>ya, proses pendaftaran pasien dan proses administasi rekam medis menjadi lebih efektif dan efisien</t>
+  </si>
+  <si>
+    <t>ya, sudah ada menu lihat rekam medis dan tagihan pasien yang dapat di cetak</t>
+  </si>
+  <si>
+    <t>Apakah sistem informasi rekam medis elektronik mudah di gunakan atau terlalu kompleks?</t>
+  </si>
+  <si>
+    <t>Apakah hasil implementasi sistem informasi rekam medis elektronik berbasis web di klinik syifa medikana dapat berjalan dengan baik atau ada kendala?</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Layak</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Service  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          ( Pelayanan )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Effisiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         ( Efisiensi ) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Control </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           ( Kontrol )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Economy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         ( Ekonomi )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Information </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     ( Informasi )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Performance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   ( Kinerja )</t>
+    </r>
+  </si>
+  <si>
+    <t>Ket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +283,39 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,22 +345,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,6 +360,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B5B4E-DE8B-402B-840D-CF47045C9D4F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,116 +711,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -629,7 +839,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,116 +851,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -762,4 +972,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1553FBF6-6198-4CD6-9F0F-B9F53191AC90}">
+  <dimension ref="A3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A3:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>